--- a/data/Tbundleusebestpricingshoppinglogic_US9408_05.xlsx
+++ b/data/Tbundleusebestpricingshoppinglogic_US9408_05.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>QuoteNumberID</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>To be assigned.pdf</t>
+  </si>
+  <si>
+    <t>NewUrl</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +432,7 @@
     <col min="13" max="13" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +472,11 @@
       <c r="M1" t="s">
         <v>17</v>
       </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1234</v>
       </c>
@@ -483,6 +492,9 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
@@ -497,6 +509,9 @@
       </c>
       <c r="M2" t="s">
         <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/Tbundleusebestpricingshoppinglogic_US9408_05.xlsx
+++ b/data/Tbundleusebestpricingshoppinglogic_US9408_05.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ngq-demo-develop\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>QuoteNumberID</t>
   </si>
@@ -93,6 +88,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>EB103609</t>
   </si>
 </sst>
 </file>
@@ -403,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +488,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -512,6 +510,11 @@
       </c>
       <c r="N2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
